--- a/figures/tables/supplementary_tables.angiotensin.xlsx
+++ b/figures/tables/supplementary_tables.angiotensin.xlsx
@@ -8,14 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S2 - Significant eQTL" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Table S3 - Conditional eQTL" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Table S4 - SuSiE" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Table S5 - CaVEMaN" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Table S6 - CAVIAR" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Table S7 - DAP-G" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Table S8 - DAP-G CS95" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Table S9 - PheWAS" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Table S1 - Significant eQTL" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Table S2 - Conditional eQTL" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Table S3 - SuSiE fine mapped" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Table S4 - CaVEMaN fine mapped" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Table S5 - CAVIAR fine mapped" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Table S6 - DAP-G fine mapped" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Table S7 - DAP-G CS95 fine mapp" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Table S8 - PheWAS" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -16525,11 +16525,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16696,8 +16696,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20345,8 +20345,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20581,8 +20581,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21629,8 +21629,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26517,11 +26517,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28948,1491 +28948,1491 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.0008951</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1.837</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>348.9</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.006594</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.7225</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>586.2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>801</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.008806</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1.172</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>722.1</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.009121</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>1.421</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>523.31</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.009492</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>1.856</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>253.4</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.009594</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1.254</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>571.5</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>772</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.009934</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.8536</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.01238</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>1.594</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>794</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1530</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.01428</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.8899</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>586</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.01507</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>1.223</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>571</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.01523</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>1.421</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.01661</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.5735</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>818.1</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>557</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.01688</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>1.197</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>846</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.01989</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.8702</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>578.2</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.02181</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.8444</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.0222</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>1.645</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>279.1</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.02226</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.4522</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>742.1</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.02251</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.8134</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>165.1</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.02341</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.6785</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>818</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.02364</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.6388</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>284.1</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>546</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.02392</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.8423</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>425.1</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>4913</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>0.0255</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>1.081</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>773</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>1275</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>0.02617</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>1.119</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>0.02791</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>1.578</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>191.11</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>0.03043</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>0.7501</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>198.4</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>0.03098</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>0.757</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>0.0313</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>0.7469</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>414.2</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>1656</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>0.03203</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>1.103</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>722.6</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.03226</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.8261</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.0335</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>1.503</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>473.3</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>525</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0.0339</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>1.178</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>521.1</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>0.03458</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>1.125</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>720.1</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>0.03616</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>1.969</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>560.2</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>2407</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>0.03618</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>1.086</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>722</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>0.03665</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>1.441</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>723.1</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>1581</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>0.03806</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>1.115</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>427.3</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>0.0388</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>1.198</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>724.1</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>0.03897</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>1.189</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>858</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>0.03939</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>1.347</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>250.11</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>0.03975</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>1.179</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>697</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>0.04056</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>1.143</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>686</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>771</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>0.04215</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>1.145</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>272.13</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>0.04246</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>0.691</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>378.5</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>0.04252</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>1.636</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>871.4</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>0.04293</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>0.7307</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>626.11</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>0.0435</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>0.6308</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>594.8</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>0.04541</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>1.247</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>367.9</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>1.721</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>420.4</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>0.04805</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>0.785</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>420.3</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>0.04991</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>1.881</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>253.1</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
         <v>577</v>
       </c>
     </row>
